--- a/Excel reader/Retest/B3-retest.xlsx
+++ b/Excel reader/Retest/B3-retest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>chandan758</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b074</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>daksh111</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b076</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -482,16 +497,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181b079</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
+          <t>ayush2348</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>181b066</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>Disqualified due to Tab switches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -500,16 +522,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181b092</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>devanshpandeyknp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>181b079</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -518,16 +545,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181b084</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+          <t>bm27_._</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>181b071</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -536,16 +568,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>gauravacharyaofficial</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>181b092</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>divanshu9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>181b084</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kuchyaayush</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>181b065</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
